--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="237">
   <si>
     <t>Мебель</t>
   </si>
@@ -723,6 +723,12 @@
   </si>
   <si>
     <t>Authentication</t>
+  </si>
+  <si>
+    <t>Watermark</t>
+  </si>
+  <si>
+    <t>No price</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,6 +1622,9 @@
       <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
@@ -1692,88 +1701,127 @@
       <c r="D31" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D36" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D37" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D40" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D42" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>92</v>
       </c>

--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="237">
   <si>
     <t>Мебель</t>
   </si>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,498 +1810,762 @@
       <c r="D45" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="46" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="48" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D58" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="67" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D67" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D68" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D69" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D76" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="84" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D84" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="85" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D85" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="89" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D89" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="90" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D90" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="93" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D93" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D94" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="95" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D95" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D97" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="100" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D100" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="102" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F103" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D104" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="110" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F109" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="114" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F113" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F114" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D115" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F117" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D118" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F118" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D119" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F119" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="123" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F122" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D123" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="126" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F125" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D126" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F127" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="130" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D130" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F130" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D131" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F132" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
         <v>190</v>
       </c>

--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="237">
   <si>
     <t>Мебель</t>
   </si>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:F132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,6 +1629,9 @@
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
         <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">

--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="237">
   <si>
     <t>Мебель</t>
   </si>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,6 +2517,9 @@
       <c r="D133" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="F133" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="5" t="s">
@@ -2573,22 +2576,25 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F145" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D147" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="5" t="s">
         <v>223</v>
       </c>
@@ -2739,6 +2745,7 @@
     <hyperlink ref="D148" r:id="rId142"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId143"/>
 </worksheet>
 </file>
 

--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Мебель" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="237">
   <si>
     <t>Мебель</t>
   </si>
@@ -1110,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E43"/>
+  <dimension ref="C3:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E42:E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,10 +1122,11 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1134,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,269 +1144,365 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="150" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1458,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,56 +2622,89 @@
       <c r="D134" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="F134" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="F135" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="F136" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="F138" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="F139" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="F140" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="5" t="s">
         <v>187</v>
       </c>
+      <c r="F141" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="5" t="s">
         <v>188</v>
       </c>
+      <c r="F142" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="F143" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="F144" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="5" t="s">
@@ -2588,15 +2718,24 @@
       <c r="D146" s="5" t="s">
         <v>192</v>
       </c>
+      <c r="F146" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="147" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D147" s="5" t="s">
         <v>222</v>
       </c>
+      <c r="F147" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="5" t="s">
         <v>223</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/CSV/pe.xlsx
+++ b/CSV/pe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мебель" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Интерактив" sheetId="4" r:id="rId4"/>
     <sheet name="Остальное" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="236">
   <si>
     <t>Мебель</t>
   </si>
@@ -717,9 +717,6 @@
   </si>
   <si>
     <t>Вручную</t>
-  </si>
-  <si>
-    <t>Need Dealay</t>
   </si>
   <si>
     <t>Authentication</t>
@@ -1112,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1179,7 +1176,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1199,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1209,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1219,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1229,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1249,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1279,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1289,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1299,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1309,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1319,7 +1316,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1329,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1339,7 +1336,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1349,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1359,7 +1356,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1369,7 +1366,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1379,7 +1376,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1389,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1399,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1409,7 +1406,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1419,7 +1416,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1429,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1439,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1449,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1459,7 +1456,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1469,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
@@ -1479,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="150" x14ac:dyDescent="0.25">
@@ -1489,7 +1486,7 @@
         <v>228</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
@@ -1555,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -1657,7 +1654,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1720,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -1802,7 +1799,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -1810,7 +1807,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -1818,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -1826,7 +1823,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -1834,7 +1831,7 @@
         <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1842,7 +1839,7 @@
         <v>80</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1850,7 +1847,7 @@
         <v>81</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
@@ -1858,7 +1855,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1863,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1874,7 +1871,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="45" x14ac:dyDescent="0.25">
@@ -1898,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
@@ -1911,7 +1908,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1919,7 +1916,7 @@
         <v>90</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
@@ -1927,7 +1924,7 @@
         <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1935,7 +1932,7 @@
         <v>92</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1940,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
@@ -1951,7 +1948,7 @@
         <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -1959,7 +1956,7 @@
         <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1967,7 +1964,7 @@
         <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
@@ -1975,7 +1972,7 @@
         <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -1983,7 +1980,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
@@ -1991,7 +1988,7 @@
         <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
@@ -1999,7 +1996,7 @@
         <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
@@ -2007,7 +2004,7 @@
         <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2015,7 +2012,7 @@
         <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2020,7 @@
         <v>103</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2028,7 @@
         <v>104</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2036,7 @@
         <v>105</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
@@ -2047,7 +2044,7 @@
         <v>106</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
@@ -2055,7 +2052,7 @@
         <v>107</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
@@ -2063,7 +2060,7 @@
         <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
@@ -2071,7 +2068,7 @@
         <v>109</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
@@ -2079,7 +2076,7 @@
         <v>110</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2087,7 +2084,7 @@
         <v>111</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2095,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2103,7 +2100,7 @@
         <v>113</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>114</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
@@ -2119,7 +2116,7 @@
         <v>115</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
@@ -2127,7 +2124,7 @@
         <v>116</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.25">
@@ -2135,7 +2132,7 @@
         <v>117</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.25">
@@ -2143,7 +2140,7 @@
         <v>118</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
@@ -2151,7 +2148,7 @@
         <v>119</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2159,7 +2156,7 @@
         <v>120</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2164,7 @@
         <v>121</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.25">
@@ -2175,7 +2172,7 @@
         <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.25">
@@ -2183,7 +2180,7 @@
         <v>123</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.25">
@@ -2191,7 +2188,7 @@
         <v>124</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2196,7 @@
         <v>125</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
@@ -2207,7 +2204,7 @@
         <v>126</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
@@ -2215,7 +2212,7 @@
         <v>127</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2223,7 +2220,7 @@
         <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2231,7 +2228,7 @@
         <v>129</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
@@ -2239,7 +2236,7 @@
         <v>130</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.25">
@@ -2247,7 +2244,7 @@
         <v>131</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2255,7 +2252,7 @@
         <v>132</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2263,7 +2260,7 @@
         <v>133</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2271,7 +2268,7 @@
         <v>134</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.25">
@@ -2279,7 +2276,7 @@
         <v>135</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.25">
@@ -2287,7 +2284,7 @@
         <v>137</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2295,7 +2292,7 @@
         <v>138</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="45" x14ac:dyDescent="0.25">
@@ -2303,7 +2300,7 @@
         <v>139</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2311,7 +2308,7 @@
         <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
@@ -2319,7 +2316,7 @@
         <v>141</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="45" x14ac:dyDescent="0.25">
@@ -2327,7 +2324,7 @@
         <v>142</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
@@ -2335,7 +2332,7 @@
         <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
@@ -2343,7 +2340,7 @@
         <v>144</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2351,7 +2348,7 @@
         <v>145</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
@@ -2359,7 +2356,7 @@
         <v>146</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2367,7 +2364,7 @@
         <v>147</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
@@ -2375,7 +2372,7 @@
         <v>148</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2383,7 +2380,7 @@
         <v>149</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
@@ -2391,7 +2388,7 @@
         <v>150</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2396,7 @@
         <v>151</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
@@ -2407,7 +2404,7 @@
         <v>152</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
@@ -2415,7 +2412,7 @@
         <v>153</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
@@ -2423,7 +2420,7 @@
         <v>154</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2431,7 +2428,7 @@
         <v>155</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
@@ -2439,7 +2436,7 @@
         <v>156</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2444,7 @@
         <v>157</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.25">
@@ -2455,7 +2452,7 @@
         <v>158</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2463,7 +2460,7 @@
         <v>159</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2471,7 +2468,7 @@
         <v>160</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.25">
@@ -2479,7 +2476,7 @@
         <v>161</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.25">
@@ -2487,7 +2484,7 @@
         <v>162</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2495,7 +2492,7 @@
         <v>163</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2503,7 +2500,7 @@
         <v>164</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.25">
@@ -2511,7 +2508,7 @@
         <v>165</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.25">
@@ -2519,7 +2516,7 @@
         <v>166</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.25">
@@ -2527,7 +2524,7 @@
         <v>167</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2535,7 +2532,7 @@
         <v>168</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.25">
@@ -2543,7 +2540,7 @@
         <v>170</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.25">
@@ -2551,7 +2548,7 @@
         <v>171</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2559,7 +2556,7 @@
         <v>172</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.25">
@@ -2567,7 +2564,7 @@
         <v>173</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.25">
@@ -2575,7 +2572,7 @@
         <v>174</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.25">
@@ -2583,7 +2580,7 @@
         <v>175</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2591,7 +2588,7 @@
         <v>176</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -2599,7 +2596,7 @@
         <v>177</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.25">
@@ -2607,7 +2604,7 @@
         <v>178</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.25">
